--- a/Smart Light Gen2.xlsx
+++ b/Smart Light Gen2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="6930" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="12850" windowHeight="5460" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="Packet Structure" sheetId="6" r:id="rId5"/>
     <sheet name="Command" sheetId="7" r:id="rId6"/>
     <sheet name="Payload" sheetId="5" r:id="rId7"/>
+    <sheet name="FOTA" sheetId="8" r:id="rId8"/>
+    <sheet name="JSON" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="319">
   <si>
     <t>S/N</t>
   </si>
@@ -669,6 +671,315 @@
   </si>
   <si>
     <t>Key16</t>
+  </si>
+  <si>
+    <t>Source ID is used for the packets from nodes</t>
+  </si>
+  <si>
+    <t>Destination ID is used for the packets from gateway/server</t>
+  </si>
+  <si>
+    <t>0x0026</t>
+  </si>
+  <si>
+    <t>0x0027</t>
+  </si>
+  <si>
+    <t>0x0028</t>
+  </si>
+  <si>
+    <t>0x0029</t>
+  </si>
+  <si>
+    <t>0x0030</t>
+  </si>
+  <si>
+    <t>0x002a</t>
+  </si>
+  <si>
+    <t>0x002b</t>
+  </si>
+  <si>
+    <t>0x002c</t>
+  </si>
+  <si>
+    <t>0x002d</t>
+  </si>
+  <si>
+    <t>0x002e</t>
+  </si>
+  <si>
+    <t>0x002f</t>
+  </si>
+  <si>
+    <t>0x0031</t>
+  </si>
+  <si>
+    <t>0x0032</t>
+  </si>
+  <si>
+    <t>0x0033</t>
+  </si>
+  <si>
+    <t>0x0034</t>
+  </si>
+  <si>
+    <t>0x0035</t>
+  </si>
+  <si>
+    <t>0x0036</t>
+  </si>
+  <si>
+    <t>0x0037</t>
+  </si>
+  <si>
+    <t>0x0038</t>
+  </si>
+  <si>
+    <t>0x0039</t>
+  </si>
+  <si>
+    <t>Motion Detected</t>
+  </si>
+  <si>
+    <t>0x003a</t>
+  </si>
+  <si>
+    <t>0x003b</t>
+  </si>
+  <si>
+    <t>0x003c</t>
+  </si>
+  <si>
+    <t>0x003d</t>
+  </si>
+  <si>
+    <t>0x003e</t>
+  </si>
+  <si>
+    <t>0x003f</t>
+  </si>
+  <si>
+    <t>Firmware update date set request</t>
+  </si>
+  <si>
+    <t>Firmware update date set response</t>
+  </si>
+  <si>
+    <t>Motion Trigger table</t>
+  </si>
+  <si>
+    <t>Contains all the allowed Zones</t>
+  </si>
+  <si>
+    <t>Contains all the allowed Groups</t>
+  </si>
+  <si>
+    <t>Contains all the allowed Source addresses</t>
+  </si>
+  <si>
+    <t>Contains all the allowed Destination addresses</t>
+  </si>
+  <si>
+    <t>Contains all the allowed motion triggers</t>
+  </si>
+  <si>
+    <t>0x15</t>
+  </si>
+  <si>
+    <t>example provision</t>
+  </si>
+  <si>
+    <t>0x00000000</t>
+  </si>
+  <si>
+    <t>0xabcd</t>
+  </si>
+  <si>
+    <t>0x00000001</t>
+  </si>
+  <si>
+    <t>0x00000011</t>
+  </si>
+  <si>
+    <t>0x0001</t>
+  </si>
+  <si>
+    <t>Get f/w version</t>
+  </si>
+  <si>
+    <t>Send image 1st packet</t>
+  </si>
+  <si>
+    <t>Steps for server</t>
+  </si>
+  <si>
+    <t>Steps for device</t>
+  </si>
+  <si>
+    <t>Send the existing f/w version</t>
+  </si>
+  <si>
+    <t>On receiving any packet, clear the new image magic number if it's not cleared and save the packet in flash/memory</t>
+  </si>
+  <si>
+    <t>Send image 2nd packet</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Send image nth packet</t>
+  </si>
+  <si>
+    <t>Repeat image sending for 3 times</t>
+  </si>
+  <si>
+    <t>Request for missing images for individual devices</t>
+  </si>
+  <si>
+    <t>Send number of missing images</t>
+  </si>
+  <si>
+    <t>if missing image is more than 30%, repeat from 2 for 3 times</t>
+  </si>
+  <si>
+    <t>Request for number of missing packets</t>
+  </si>
+  <si>
+    <t>There will be 3 comlete retries and after that start communicating individually</t>
+  </si>
+  <si>
+    <t>Send first missing image</t>
+  </si>
+  <si>
+    <t>broadcast the missing image</t>
+  </si>
+  <si>
+    <t>repeat the query and broadcast untill all the images are saved successfully</t>
+  </si>
+  <si>
+    <t>If there are no missing image for the device, set the firmware upgrade date  and time</t>
+  </si>
+  <si>
+    <t>Save the firmware upgrade date and time</t>
+  </si>
+  <si>
+    <t>Save firmware upgrade date time set flag</t>
+  </si>
+  <si>
+    <t>Every hour if firmware upgrade date time flag is set, check the firmware upgrade date and time, if it matches, save firmware upgrade flag for boot loader and reboot. This will initiate the firmware upgrade process.</t>
+  </si>
+  <si>
+    <t>For individual device, get first 16 missing images</t>
+  </si>
+  <si>
+    <t>Get firmware version request</t>
+  </si>
+  <si>
+    <t>Get firmware version response</t>
+  </si>
+  <si>
+    <t>laterst firmware in server request</t>
+  </si>
+  <si>
+    <t>latest firmware in server response</t>
+  </si>
+  <si>
+    <t>0x0040</t>
+  </si>
+  <si>
+    <t>0x0041</t>
+  </si>
+  <si>
+    <t>0x0042</t>
+  </si>
+  <si>
+    <t>0x0043</t>
+  </si>
+  <si>
+    <t>0x0044</t>
+  </si>
+  <si>
+    <t>0x0045</t>
+  </si>
+  <si>
+    <t>0x0046</t>
+  </si>
+  <si>
+    <t>0x0047</t>
+  </si>
+  <si>
+    <t>0x0048</t>
+  </si>
+  <si>
+    <t>0x0049</t>
+  </si>
+  <si>
+    <t>Sensor data</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SenderId:"LightingSystem-AZTECH-11-GATEWAY", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SensorID:"LightingSystem-AZTECH-11-LoRa", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EventId:"EV-01-aa-bb", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EventType:"LightingSystem/variable#reading", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters:{ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">version:1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">misc:0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter:1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone:1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">group:1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">misc1:0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">destinationID:1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sourceID:1, </t>
+  </si>
+  <si>
+    <t>command:32 ,</t>
+  </si>
+  <si>
+    <t>datasize:4 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t>}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time:"tttttttt", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">payload:"nnnn" </t>
   </si>
 </sst>
 </file>
@@ -712,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -725,6 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4998,10 +5310,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5009,11 +5321,11 @@
     <col min="2" max="2" width="22.36328125" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" customWidth="1"/>
     <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5029,8 +5341,11 @@
       <c r="G1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5049,8 +5364,11 @@
       <c r="G2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5069,8 +5387,11 @@
       <c r="G3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="O3" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5081,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5091,8 +5412,11 @@
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="O5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5105,8 +5429,11 @@
       <c r="G6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="O6" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5116,8 +5443,11 @@
       <c r="C7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="O7" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5127,8 +5457,11 @@
       <c r="C8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="O8" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5138,13 +5471,19 @@
       <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="O9" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -5152,7 +5491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="I18" t="s">
         <v>120</v>
       </c>
@@ -5160,15 +5499,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="I19" t="s">
         <v>121</v>
       </c>
       <c r="J19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>100</v>
       </c>
@@ -5181,8 +5523,11 @@
       <c r="J20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>102</v>
       </c>
@@ -5195,8 +5540,11 @@
       <c r="J21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>104</v>
       </c>
@@ -5209,8 +5557,22 @@
       <c r="J22" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>247</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>106</v>
       </c>
@@ -5218,7 +5580,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>108</v>
       </c>
@@ -5226,7 +5588,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>109</v>
       </c>
@@ -5234,7 +5596,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>111</v>
       </c>
@@ -5242,7 +5604,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>113</v>
       </c>
@@ -5250,7 +5612,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>115</v>
       </c>
@@ -5258,7 +5620,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>128</v>
       </c>
@@ -5268,28 +5630,34 @@
       <c r="E33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="J33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>129</v>
       </c>
       <c r="C39" t="s">
         <v>130</v>
+      </c>
+      <c r="J39" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5299,11 +5667,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5425,9 +5793,6 @@
       <c r="B10" t="s">
         <v>160</v>
       </c>
-      <c r="C10" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -5436,9 +5801,6 @@
       <c r="B11" t="s">
         <v>161</v>
       </c>
-      <c r="C11" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -5447,9 +5809,6 @@
       <c r="B12" t="s">
         <v>162</v>
       </c>
-      <c r="C12" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -5458,9 +5817,6 @@
       <c r="B13" t="s">
         <v>163</v>
       </c>
-      <c r="C13" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -5469,9 +5825,6 @@
       <c r="B14" t="s">
         <v>164</v>
       </c>
-      <c r="C14" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -5480,9 +5833,6 @@
       <c r="B15" t="s">
         <v>165</v>
       </c>
-      <c r="C15" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -5492,7 +5842,7 @@
         <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -5503,7 +5853,7 @@
         <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -5514,7 +5864,7 @@
         <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -5525,7 +5875,7 @@
         <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -5535,6 +5885,9 @@
       <c r="B20" t="s">
         <v>152</v>
       </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -5543,6 +5896,9 @@
       <c r="B21" t="s">
         <v>153</v>
       </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -5551,6 +5907,9 @@
       <c r="B22" t="s">
         <v>154</v>
       </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
@@ -5559,6 +5918,9 @@
       <c r="B23" t="s">
         <v>155</v>
       </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -5567,6 +5929,9 @@
       <c r="B24" t="s">
         <v>156</v>
       </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -5575,6 +5940,9 @@
       <c r="B25" t="s">
         <v>157</v>
       </c>
+      <c r="C25" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -5632,7 +6000,7 @@
         <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -5642,6 +6010,9 @@
       <c r="B33" t="s">
         <v>159</v>
       </c>
+      <c r="C33" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
@@ -5650,6 +6021,9 @@
       <c r="B34" t="s">
         <v>192</v>
       </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
@@ -5659,7 +6033,7 @@
         <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -5670,7 +6044,7 @@
         <v>194</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -5685,20 +6059,306 @@
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>290</v>
+      </c>
+      <c r="C66" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5711,7 +6371,7 @@
   <dimension ref="A1:BU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5729,10 +6389,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="3">
         <v>1</v>
       </c>
@@ -5901,4 +6561,289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="57.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.90625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="C25" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Smart Light Gen2.xlsx
+++ b/Smart Light Gen2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murphy Tan\Desktop\lms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F28ED272-B139-42EE-A7F0-48DE5C3972EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="12850" windowHeight="5460" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="367">
   <si>
     <t>S/N</t>
   </si>
@@ -980,12 +986,156 @@
   </si>
   <si>
     <t xml:space="preserve">payload:"nnnn" </t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>start address</t>
+  </si>
+  <si>
+    <t>device ID1_0</t>
+  </si>
+  <si>
+    <t>device ID1_1</t>
+  </si>
+  <si>
+    <t>device ID1_2</t>
+  </si>
+  <si>
+    <t>device ID1_3</t>
+  </si>
+  <si>
+    <t>con_command1</t>
+  </si>
+  <si>
+    <t>con_command2</t>
+  </si>
+  <si>
+    <t>device ID2_0</t>
+  </si>
+  <si>
+    <t>device ID2_1</t>
+  </si>
+  <si>
+    <t>device ID2_2</t>
+  </si>
+  <si>
+    <t>device ID2_3</t>
+  </si>
+  <si>
+    <t>device ID3_0</t>
+  </si>
+  <si>
+    <t>device ID3_1</t>
+  </si>
+  <si>
+    <t>device ID3_2</t>
+  </si>
+  <si>
+    <t>device ID3_3</t>
+  </si>
+  <si>
+    <t>device ID4_0</t>
+  </si>
+  <si>
+    <t>device ID4_1</t>
+  </si>
+  <si>
+    <t>device ID4_2</t>
+  </si>
+  <si>
+    <t>device ID4_3</t>
+  </si>
+  <si>
+    <t>device ID5_0</t>
+  </si>
+  <si>
+    <t>device ID5_1</t>
+  </si>
+  <si>
+    <t>device ID5_2</t>
+  </si>
+  <si>
+    <t>device ID5_3</t>
+  </si>
+  <si>
+    <t>device ID6_0</t>
+  </si>
+  <si>
+    <t>device ID6_1</t>
+  </si>
+  <si>
+    <t>device ID6_2</t>
+  </si>
+  <si>
+    <t>device ID6_3</t>
+  </si>
+  <si>
+    <t>device ID7_0</t>
+  </si>
+  <si>
+    <t>device ID7_1</t>
+  </si>
+  <si>
+    <t>device ID7_2</t>
+  </si>
+  <si>
+    <t>device ID7_3</t>
+  </si>
+  <si>
+    <t>device ID8_0</t>
+  </si>
+  <si>
+    <t>device ID8_1</t>
+  </si>
+  <si>
+    <t>device ID8_2</t>
+  </si>
+  <si>
+    <t>device ID8_3</t>
+  </si>
+  <si>
+    <t>no of devices</t>
+  </si>
+  <si>
+    <t>1,3 - set source filter table</t>
+  </si>
+  <si>
+    <t>1,4 - set destination filter table</t>
+  </si>
+  <si>
+    <t>1,0 - set trigger filter table</t>
+  </si>
+  <si>
+    <t>1,1 - set group filter table</t>
+  </si>
+  <si>
+    <t>1,2 - set zone filter table</t>
+  </si>
+  <si>
+    <t>ACK/NACK</t>
+  </si>
+  <si>
+    <t>Production date</t>
+  </si>
+  <si>
+    <t>Production Site</t>
+  </si>
+  <si>
+    <t>Device type</t>
+  </si>
+  <si>
+    <t>GPS/DUMMY</t>
+  </si>
+  <si>
+    <t>Source ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1055,6 +1205,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1076,7 +1229,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1138,7 +1297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1193,7 +1358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1248,7 +1419,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1303,7 +1480,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Left-Right Arrow 6"/>
+        <xdr:cNvPr id="7" name="Left-Right Arrow 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1358,7 +1541,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1413,7 +1602,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Up-Down Arrow 9"/>
+        <xdr:cNvPr id="10" name="Up-Down Arrow 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1465,7 +1660,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Up-Down Arrow 10"/>
+        <xdr:cNvPr id="11" name="Up-Down Arrow 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1517,7 +1718,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Cloud Callout 12"/>
+        <xdr:cNvPr id="13" name="Cloud Callout 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1572,7 +1779,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
+        <xdr:cNvPr id="15" name="Elbow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="5" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -1618,7 +1831,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
+        <xdr:cNvPr id="17" name="Elbow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="81" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -1664,7 +1883,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1708,7 +1933,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1752,7 +1983,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Connector 27"/>
+        <xdr:cNvPr id="28" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1796,7 +2033,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Connector 29"/>
+        <xdr:cNvPr id="30" name="Straight Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1840,7 +2083,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Lightning Bolt 33"/>
+        <xdr:cNvPr id="34" name="Lightning Bolt 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1892,7 +2141,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Elbow Connector 35"/>
+        <xdr:cNvPr id="36" name="Elbow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="6" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -1938,7 +2193,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Connector 38"/>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1982,7 +2243,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Connector 40"/>
+        <xdr:cNvPr id="41" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2026,7 +2293,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2081,7 +2354,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rounded Rectangle 42"/>
+        <xdr:cNvPr id="43" name="Rounded Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2136,7 +2415,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
+        <xdr:cNvPr id="44" name="Rounded Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2191,7 +2476,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Left-Right Arrow 44"/>
+        <xdr:cNvPr id="45" name="Left-Right Arrow 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2246,7 +2537,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+        <xdr:cNvPr id="46" name="Rounded Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2301,7 +2598,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Up-Down Arrow 46"/>
+        <xdr:cNvPr id="47" name="Up-Down Arrow 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2353,7 +2656,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Up-Down Arrow 47"/>
+        <xdr:cNvPr id="48" name="Up-Down Arrow 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2405,7 +2714,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Elbow Connector 48"/>
+        <xdr:cNvPr id="49" name="Elbow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="43" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -2451,7 +2766,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Connector 49"/>
+        <xdr:cNvPr id="50" name="Straight Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2495,7 +2816,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Connector 50"/>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2539,7 +2866,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Elbow Connector 52"/>
+        <xdr:cNvPr id="53" name="Elbow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="44" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -2585,7 +2918,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Connector 53"/>
+        <xdr:cNvPr id="54" name="Straight Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2629,7 +2968,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Connector 54"/>
+        <xdr:cNvPr id="55" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2673,7 +3018,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Lightning Bolt 55"/>
+        <xdr:cNvPr id="56" name="Lightning Bolt 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2725,7 +3076,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Lightning Bolt 56"/>
+        <xdr:cNvPr id="57" name="Lightning Bolt 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2772,7 +3129,13 @@
     <xdr:ext cx="594650" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="TextBox 57"/>
+        <xdr:cNvPr id="58" name="TextBox 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2824,7 +3187,13 @@
     <xdr:ext cx="594650" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="TextBox 58"/>
+        <xdr:cNvPr id="59" name="TextBox 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2881,7 +3250,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Rounded Rectangle 60"/>
+        <xdr:cNvPr id="61" name="Rounded Rectangle 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2936,7 +3311,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Elbow Connector 62"/>
+        <xdr:cNvPr id="63" name="Elbow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
           <a:endCxn id="61" idx="0"/>
@@ -2988,7 +3369,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Rounded Rectangle 72"/>
+        <xdr:cNvPr id="73" name="Rounded Rectangle 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3043,7 +3430,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Elbow Connector 73"/>
+        <xdr:cNvPr id="74" name="Elbow Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="2"/>
           <a:endCxn id="73" idx="0"/>
@@ -3095,7 +3488,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Left-Right Arrow 76"/>
+        <xdr:cNvPr id="77" name="Left-Right Arrow 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3150,7 +3549,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Rectangle 77"/>
+        <xdr:cNvPr id="78" name="Rectangle 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3205,7 +3610,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="Up-Down Arrow 78"/>
+        <xdr:cNvPr id="79" name="Up-Down Arrow 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3260,7 +3671,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Rounded Rectangle 79"/>
+        <xdr:cNvPr id="80" name="Rounded Rectangle 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3320,7 +3737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Rounded Rectangle 80"/>
+        <xdr:cNvPr id="81" name="Rounded Rectangle 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3382,7 +3805,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3434,7 +3863,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3489,7 +3924,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3544,7 +3985,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
+        <xdr:cNvPr id="16" name="Elbow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -3592,7 +4039,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3636,7 +4089,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3680,7 +4139,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Lightning Bolt 59"/>
+        <xdr:cNvPr id="60" name="Lightning Bolt 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3737,7 +4202,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3784,7 +4255,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3831,7 +4308,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3878,7 +4361,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3925,7 +4414,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3972,7 +4467,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4019,7 +4520,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4066,7 +4573,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4113,7 +4626,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4160,7 +4679,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4207,7 +4732,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4254,7 +4785,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4301,7 +4838,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4348,7 +4891,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4395,7 +4944,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Connector 27"/>
+        <xdr:cNvPr id="28" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4439,7 +4994,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Connector 29"/>
+        <xdr:cNvPr id="30" name="Straight Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4514,7 +5075,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4547,9 +5108,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4582,6 +5160,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4757,22 +5352,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.90625" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="53" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4786,7 +5381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4800,7 +5395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4814,7 +5409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4828,7 +5423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4842,7 +5437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4856,7 +5451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4877,63 +5472,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:R36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>26</v>
       </c>
@@ -4941,17 +5536,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="R17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="R18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>19</v>
       </c>
@@ -4959,7 +5554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -4967,12 +5562,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>7</v>
       </c>
@@ -4980,7 +5575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>8</v>
       </c>
@@ -4988,32 +5583,32 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -5021,7 +5616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -5029,7 +5624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>37</v>
       </c>
@@ -5037,7 +5632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -5045,7 +5640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -5053,17 +5648,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>43</v>
       </c>
@@ -5076,23 +5671,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5112,7 +5707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5126,7 +5721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5134,14 +5729,14 @@
       <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.7265625" customWidth="1"/>
-    <col min="3" max="3" width="37.26953125" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>76</v>
       </c>
@@ -5152,12 +5747,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -5168,122 +5763,122 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -5291,12 +5886,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>85</v>
       </c>
@@ -5309,23 +5904,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.36328125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5345,7 +5940,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5368,7 +5963,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5391,7 +5986,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5402,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5416,7 +6011,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5433,7 +6028,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5447,7 +6042,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5461,7 +6056,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5475,7 +6070,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>99</v>
       </c>
@@ -5483,7 +6078,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -5491,7 +6086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>120</v>
       </c>
@@ -5499,7 +6094,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>121</v>
       </c>
@@ -5510,7 +6105,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>100</v>
       </c>
@@ -5527,7 +6122,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>102</v>
       </c>
@@ -5544,7 +6139,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>104</v>
       </c>
@@ -5561,7 +6156,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>247</v>
       </c>
@@ -5572,7 +6167,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>106</v>
       </c>
@@ -5580,7 +6175,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>108</v>
       </c>
@@ -5588,7 +6183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>109</v>
       </c>
@@ -5596,7 +6191,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>111</v>
       </c>
@@ -5604,7 +6199,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>113</v>
       </c>
@@ -5612,7 +6207,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>115</v>
       </c>
@@ -5620,7 +6215,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>128</v>
       </c>
@@ -5634,22 +6229,22 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>129</v>
       </c>
@@ -5666,22 +6261,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="28.26953125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5692,7 +6287,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5706,7 +6301,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5720,7 +6315,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5731,7 +6326,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5742,7 +6337,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5753,7 +6348,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5764,7 +6359,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5775,7 +6370,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5786,7 +6381,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5794,7 +6389,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5802,7 +6397,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5810,7 +6405,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5818,7 +6413,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5826,7 +6421,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5834,7 +6429,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5845,7 +6440,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5856,7 +6451,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5867,7 +6462,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5878,7 +6473,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5889,7 +6484,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5900,7 +6495,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5911,7 +6506,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5922,7 +6517,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5933,7 +6528,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5944,7 +6539,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5952,7 +6547,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5960,7 +6555,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5968,7 +6563,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5976,7 +6571,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5984,7 +6579,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5992,7 +6587,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6003,7 +6598,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6014,7 +6609,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6025,7 +6620,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6036,7 +6631,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6047,7 +6642,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6055,7 +6650,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6066,7 +6661,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6077,7 +6672,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6088,7 +6683,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6099,7 +6694,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6107,7 +6702,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6115,7 +6710,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6123,7 +6718,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6131,7 +6726,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6139,7 +6734,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6147,7 +6742,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6155,7 +6750,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6163,7 +6758,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6171,7 +6766,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6179,7 +6774,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6187,7 +6782,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6195,7 +6790,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6203,7 +6798,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6211,7 +6806,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6219,7 +6814,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6227,7 +6822,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6235,7 +6830,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6243,7 +6838,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6251,7 +6846,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6259,7 +6854,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6267,7 +6862,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6275,7 +6870,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6286,7 +6881,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6294,7 +6889,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6305,7 +6900,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6313,7 +6908,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6321,7 +6916,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6329,7 +6924,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6337,7 +6932,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6345,7 +6940,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6353,7 +6948,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6367,25 +6962,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:BU71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" style="3" customWidth="1"/>
-    <col min="5" max="36" width="3.1796875" style="3" customWidth="1"/>
-    <col min="37" max="67" width="3.1796875" style="4" customWidth="1"/>
-    <col min="68" max="73" width="2.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="36" width="3.140625" style="3" customWidth="1"/>
+    <col min="37" max="67" width="3.140625" style="4" customWidth="1"/>
+    <col min="68" max="73" width="2.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6450,8 +7045,41 @@
       <c r="V1" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:66" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W1" s="3">
+        <v>20</v>
+      </c>
+      <c r="X1" s="3">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="5"/>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
@@ -6484,7 +7112,7 @@
       <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" ht="80.25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6494,8 +7122,86 @@
       <c r="C3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="7" spans="1:66" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="D3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6505,53 +7211,562 @@
       <c r="C7" t="s">
         <v>199</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="F7" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>215</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>358</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="2:40" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>358</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="2:40" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>358</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF62" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG62" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH62" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI62" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ62" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK62" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL62" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM62" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AN62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6564,20 +7779,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6588,7 +7803,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6599,7 +7814,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6610,7 +7825,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>266</v>
       </c>
@@ -6618,7 +7833,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>268</v>
       </c>
@@ -6626,7 +7841,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>268</v>
       </c>
@@ -6634,12 +7849,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -6647,7 +7862,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>271</v>
       </c>
@@ -6655,27 +7870,27 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -6686,17 +7901,17 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6707,12 +7922,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>282</v>
       </c>
@@ -6724,121 +7939,121 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>316</v>
       </c>

--- a/Smart Light Gen2.xlsx
+++ b/Smart Light Gen2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murphy Tan\Desktop\lms\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F28ED272-B139-42EE-A7F0-48DE5C3972EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="9180" windowHeight="5460" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="1" r:id="rId1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="374">
   <si>
     <t>S/N</t>
   </si>
@@ -382,15 +376,6 @@
     <t>if n is in filter table, execute or drop</t>
   </si>
   <si>
-    <t>Source ID, Forward ID</t>
-  </si>
-  <si>
-    <t>if Forward ID=0, it's for self</t>
-  </si>
-  <si>
-    <t>if Forward ID=0xff, it's for broadcast</t>
-  </si>
-  <si>
     <t>Tables:</t>
   </si>
   <si>
@@ -409,21 +394,12 @@
     <t>8bytes x 128</t>
   </si>
   <si>
-    <t>if Forward ID=n1, it's for device n1</t>
-  </si>
-  <si>
-    <t>if Forward ID=n2, it's for sending through 1272</t>
-  </si>
-  <si>
     <t>Source Filter tabe</t>
   </si>
   <si>
     <t>Destination Filter table</t>
   </si>
   <si>
-    <t>Destination ID, Forward ID</t>
-  </si>
-  <si>
     <t>Source Filter Table</t>
   </si>
   <si>
@@ -1130,12 +1106,51 @@
   </si>
   <si>
     <t>Source ID</t>
+  </si>
+  <si>
+    <t>Destination ID</t>
+  </si>
+  <si>
+    <t>Device version</t>
+  </si>
+  <si>
+    <t>time - seconds from 1/1/2000</t>
+  </si>
+  <si>
+    <t>Device version - 2 bytes</t>
+  </si>
+  <si>
+    <t>Production D/T - seconds from 1/1/2000</t>
+  </si>
+  <si>
+    <t>Production Site - 2 bytes</t>
+  </si>
+  <si>
+    <t>Production ID</t>
+  </si>
+  <si>
+    <t>GPS - optional</t>
+  </si>
+  <si>
+    <t>CRC - 2bytes</t>
+  </si>
+  <si>
+    <t>e.g. -</t>
+  </si>
+  <si>
+    <t>Device Type - 2 bytes               e.g.-</t>
+  </si>
+  <si>
+    <t>e.g.-</t>
+  </si>
+  <si>
+    <t>Production ID - test setup id, 2 bytes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1173,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1190,6 +1205,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,9 +1222,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1229,13 +1244,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1297,13 +1306,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1358,13 +1361,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1419,13 +1416,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1480,13 +1471,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Left-Right Arrow 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Left-Right Arrow 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1541,13 +1526,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1602,13 +1581,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Up-Down Arrow 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Up-Down Arrow 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1660,13 +1633,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Up-Down Arrow 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Up-Down Arrow 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1718,13 +1685,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Cloud Callout 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="Cloud Callout 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1779,13 +1740,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Elbow Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="5" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -1831,13 +1786,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Elbow Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="81" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -1883,13 +1832,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1933,13 +1876,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1983,13 +1920,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Connector 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="Straight Connector 27"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2033,13 +1964,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Connector 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2083,13 +2008,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Lightning Bolt 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="34" name="Lightning Bolt 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2141,13 +2060,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Elbow Connector 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="Elbow Connector 35"/>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="6" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -2193,13 +2106,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2243,13 +2150,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Connector 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2293,13 +2194,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="42" name="Rectangle 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2354,13 +2249,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rounded Rectangle 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="43" name="Rounded Rectangle 42"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2415,13 +2304,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rounded Rectangle 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2476,13 +2359,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Left-Right Arrow 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="45" name="Left-Right Arrow 44"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2537,13 +2414,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rounded Rectangle 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2598,13 +2469,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Up-Down Arrow 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="47" name="Up-Down Arrow 46"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2656,13 +2521,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Up-Down Arrow 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="48" name="Up-Down Arrow 47"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2714,13 +2573,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Elbow Connector 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="49" name="Elbow Connector 48"/>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="43" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -2766,13 +2619,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Connector 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="50" name="Straight Connector 49"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2816,13 +2663,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Connector 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2866,13 +2707,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Elbow Connector 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="53" name="Elbow Connector 52"/>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="44" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -2918,13 +2753,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Connector 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="54" name="Straight Connector 53"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2968,13 +2797,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Connector 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3018,13 +2841,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Lightning Bolt 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="56" name="Lightning Bolt 55"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3076,13 +2893,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Lightning Bolt 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="57" name="Lightning Bolt 56"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3129,13 +2940,7 @@
     <xdr:ext cx="594650" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="TextBox 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="58" name="TextBox 57"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3187,13 +2992,7 @@
     <xdr:ext cx="594650" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="TextBox 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="59" name="TextBox 58"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3250,13 +3049,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Rounded Rectangle 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="61" name="Rounded Rectangle 60"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3311,13 +3104,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Elbow Connector 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="63" name="Elbow Connector 62"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
           <a:endCxn id="61" idx="0"/>
@@ -3369,13 +3156,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Rounded Rectangle 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="73" name="Rounded Rectangle 72"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3430,13 +3211,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Elbow Connector 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="74" name="Elbow Connector 73"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="2"/>
           <a:endCxn id="73" idx="0"/>
@@ -3488,13 +3263,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Left-Right Arrow 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="77" name="Left-Right Arrow 76"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3549,13 +3318,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Rectangle 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="78" name="Rectangle 77"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3610,13 +3373,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="Up-Down Arrow 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="79" name="Up-Down Arrow 78"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3671,13 +3428,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Rounded Rectangle 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="80" name="Rounded Rectangle 79"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3737,13 +3488,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Rounded Rectangle 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="81" name="Rounded Rectangle 80"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3805,13 +3550,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3863,13 +3602,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3924,13 +3657,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3985,13 +3712,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Elbow Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -4039,13 +3760,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4089,13 +3804,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Connector 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4139,13 +3848,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Lightning Bolt 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="60" name="Lightning Bolt 59"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4202,13 +3905,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4255,13 +3952,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4308,13 +3999,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4361,13 +4046,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4414,13 +4093,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4467,13 +4140,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4520,13 +4187,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4573,13 +4234,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4626,13 +4281,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4679,13 +4328,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4732,13 +4375,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4785,13 +4422,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4838,13 +4469,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4891,13 +4516,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4944,13 +4563,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Connector 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="Straight Connector 27"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4994,13 +4607,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Connector 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5075,7 +4682,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5108,26 +4715,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5160,23 +4750,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5352,22 +4925,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="53" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5381,7 +4954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5395,7 +4968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5409,7 +4982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5423,7 +4996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5437,7 +5010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5451,7 +5024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5472,63 +5045,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.35">
       <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="K16" t="s">
         <v>26</v>
       </c>
@@ -5536,17 +5109,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="R17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="R18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>19</v>
       </c>
@@ -5554,7 +5127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -5562,12 +5135,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="R21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="G22" t="s">
         <v>7</v>
       </c>
@@ -5575,7 +5148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="G23" t="s">
         <v>8</v>
       </c>
@@ -5583,32 +5156,32 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="G24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="G25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="G26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="G27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="G28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -5616,7 +5189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -5624,7 +5197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>37</v>
       </c>
@@ -5632,7 +5205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -5640,7 +5213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -5648,17 +5221,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>43</v>
       </c>
@@ -5671,23 +5244,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5707,7 +5280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5721,7 +5294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5729,14 +5302,14 @@
       <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" customWidth="1"/>
+    <col min="3" max="3" width="37.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>76</v>
       </c>
@@ -5747,12 +5320,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -5763,122 +5336,122 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -5886,12 +5459,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>85</v>
       </c>
@@ -5904,23 +5477,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5934,18 +5507,18 @@
         <v>89</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5957,13 +5530,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5980,13 +5553,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5997,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6008,10 +5581,10 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6022,13 +5595,13 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6039,10 +5612,10 @@
         <v>4</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6053,10 +5626,10 @@
         <v>4</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6067,10 +5640,13 @@
         <v>2</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>99</v>
       </c>
@@ -6078,34 +5654,37 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>93</v>
       </c>
-      <c r="C16">
+      <c r="C11">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="I18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" t="s">
         <v>120</v>
       </c>
-      <c r="J18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="I19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" t="s">
         <v>121</v>
       </c>
-      <c r="J19" t="s">
-        <v>124</v>
-      </c>
       <c r="L19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>100</v>
       </c>
@@ -6113,16 +5692,16 @@
         <v>101</v>
       </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>102</v>
       </c>
@@ -6130,16 +5709,16 @@
         <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>104</v>
       </c>
@@ -6147,27 +5726,27 @@
         <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="I23" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>106</v>
       </c>
@@ -6175,7 +5754,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>108</v>
       </c>
@@ -6183,7 +5762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>109</v>
       </c>
@@ -6191,7 +5770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>111</v>
       </c>
@@ -6199,7 +5778,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>113</v>
       </c>
@@ -6207,7 +5786,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>115</v>
       </c>
@@ -6215,44 +5794,26 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" t="s">
-        <v>118</v>
+        <v>360</v>
       </c>
       <c r="J33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>361</v>
       </c>
       <c r="J39" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -6261,7 +5822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6269,14 +5830,14 @@
       <selection pane="bottomLeft" activeCell="B25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6284,676 +5845,676 @@
         <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C66" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6962,25 +6523,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BU71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BU77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="36" width="3.140625" style="3" customWidth="1"/>
-    <col min="37" max="67" width="3.140625" style="4" customWidth="1"/>
-    <col min="68" max="73" width="2.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" customWidth="1"/>
+    <col min="4" max="4" width="3.08984375" style="3" customWidth="1"/>
+    <col min="5" max="36" width="3.1796875" style="3" customWidth="1"/>
+    <col min="37" max="67" width="3.1796875" style="4" customWidth="1"/>
+    <col min="68" max="73" width="2.54296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7079,7 +6641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:66" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H2" s="5"/>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
@@ -7112,87 +6674,87 @@
       <c r="BM2" s="3"/>
       <c r="BN2" s="3"/>
     </row>
-    <row r="3" spans="1:66" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" ht="78" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>93</v>
@@ -7201,572 +6763,951 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="4" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>56</v>
+      </c>
+      <c r="K4" s="3">
+        <v>78</v>
+      </c>
+      <c r="L4" s="3">
+        <v>12</v>
+      </c>
+      <c r="M4" s="3">
+        <v>34</v>
+      </c>
+      <c r="N4" s="3">
+        <v>56</v>
+      </c>
+      <c r="O4" s="3">
+        <v>78</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" ht="71" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="V13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C14" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
+        <v>34</v>
+      </c>
+      <c r="J14" s="3">
+        <v>56</v>
+      </c>
+      <c r="K14" s="3">
+        <v>78</v>
+      </c>
+      <c r="L14" s="3">
+        <v>11</v>
+      </c>
+      <c r="M14" s="3">
+        <v>22</v>
+      </c>
+      <c r="N14" s="3">
+        <v>33</v>
+      </c>
+      <c r="O14" s="3">
+        <v>44</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>6</v>
+      </c>
+      <c r="V14" s="3">
+        <v>7</v>
+      </c>
+      <c r="W14" s="3">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>14</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>15</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>16</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="2:41" ht="78.5" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF7" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH31" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK31" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM31" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AO31" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="2:40" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>358</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB25" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE25" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF25" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG25" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH25" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="AI25" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="AJ25" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AK25" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL25" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="AM25" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="AN25" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>8</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>12</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D34" s="3">
         <v>1</v>
       </c>
       <c r="E34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D40" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>358</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="78.5" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>352</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3">
+        <v>12</v>
+      </c>
+      <c r="J45" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="78.5" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C57" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>12</v>
+      </c>
+      <c r="I57" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="2:41" ht="78.5" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>352</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="P68" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="Q68" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="I38" s="3" t="s">
+      <c r="R68" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="W68" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y68" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z68" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB68" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC68" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD68" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE68" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF68" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG68" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH68" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI68" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ68" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK68" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL68" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM68" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN68" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="2:40" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>358</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H50" s="3" t="s">
+      <c r="AO68" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="54" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="58" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="2:40" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>358</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB62" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC62" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AD62" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE62" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF62" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG62" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH62" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="AI62" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="AJ62" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AK62" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL62" s="3" t="s">
+    <row r="69" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
         <v>353</v>
       </c>
-      <c r="AM62" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="AN62" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D65" s="3">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D67" s="3">
-        <v>1</v>
-      </c>
-      <c r="E67" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D69" s="3">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:41" x14ac:dyDescent="0.35">
       <c r="D71" s="3">
         <v>1</v>
       </c>
       <c r="E71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="D75" s="3">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="D77" s="3">
         <v>4</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7779,157 +7720,157 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="57.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -7939,123 +7880,123 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
